--- a/Students Upload.xlsx
+++ b/Students Upload.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Brian Ndirangu\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\sms\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="32">
   <si>
     <t>birthday</t>
   </si>
@@ -68,9 +68,6 @@
     <t>Olopikidongoe</t>
   </si>
   <si>
-    <t>Catholic</t>
-  </si>
-  <si>
     <t>Joseph Anrw</t>
   </si>
   <si>
@@ -80,66 +77,9 @@
     <t>62 - Lolgorian</t>
   </si>
   <si>
-    <t>63 - Lolgorian</t>
-  </si>
-  <si>
-    <t>pencil67</t>
-  </si>
-  <si>
-    <t>ip</t>
-  </si>
-  <si>
-    <t>Antony Mathenge</t>
-  </si>
-  <si>
-    <t>Muthoni Simon</t>
-  </si>
-  <si>
-    <t>Kimathi Edwin</t>
-  </si>
-  <si>
-    <t>Kaligraph Jones</t>
-  </si>
-  <si>
-    <t>Andrew Moses</t>
-  </si>
-  <si>
-    <t>mose</t>
-  </si>
-  <si>
-    <t>simo</t>
-  </si>
-  <si>
-    <t>edu</t>
-  </si>
-  <si>
-    <t>kali</t>
-  </si>
-  <si>
-    <t>64 - Lolgorian</t>
-  </si>
-  <si>
-    <t>65 - Lolgorian</t>
-  </si>
-  <si>
-    <t>66 - Lolgorian</t>
-  </si>
-  <si>
-    <t>67 - Lolgorian</t>
-  </si>
-  <si>
     <t>0724814177</t>
   </si>
   <si>
-    <t>pencil68</t>
-  </si>
-  <si>
-    <t>pencil69</t>
-  </si>
-  <si>
-    <t>pencil70</t>
-  </si>
-  <si>
     <t>Muslim</t>
   </si>
   <si>
@@ -177,6 +117,9 @@
   </si>
   <si>
     <t>0724814117</t>
+  </si>
+  <si>
+    <t>0704135698</t>
   </si>
 </sst>
 </file>
@@ -505,10 +448,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P9"/>
+  <dimension ref="A1:P3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J32" sqref="J32"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -526,16 +469,16 @@
   <sheetData>
     <row r="1" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>42</v>
+        <v>22</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>43</v>
+        <v>23</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>44</v>
+        <v>24</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>45</v>
+        <v>25</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>0</v>
@@ -550,16 +493,16 @@
         <v>3</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>41</v>
+        <v>21</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>46</v>
+        <v>26</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>47</v>
+        <v>27</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>48</v>
+        <v>28</v>
       </c>
       <c r="M1" s="1" t="s">
         <v>4</v>
@@ -600,19 +543,19 @@
         <v>11</v>
       </c>
       <c r="I2" t="s">
-        <v>49</v>
+        <v>29</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="K2" t="s">
-        <v>49</v>
+        <v>29</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="N2" t="s">
         <v>12</v>
@@ -621,7 +564,7 @@
         <v>13</v>
       </c>
       <c r="P2" t="s">
-        <v>39</v>
+        <v>19</v>
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
@@ -632,10 +575,10 @@
         <v>40205</v>
       </c>
       <c r="C3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" t="s">
         <v>15</v>
-      </c>
-      <c r="D3" t="s">
-        <v>16</v>
       </c>
       <c r="E3" s="3">
         <v>36066</v>
@@ -647,22 +590,22 @@
         <v>10</v>
       </c>
       <c r="H3" t="s">
+        <v>16</v>
+      </c>
+      <c r="I3" t="s">
+        <v>29</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="K3" t="s">
+        <v>29</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="M3" s="2" t="s">
         <v>17</v>
-      </c>
-      <c r="I3" t="s">
-        <v>49</v>
-      </c>
-      <c r="J3" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="K3" t="s">
-        <v>49</v>
-      </c>
-      <c r="L3" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="M3" s="2" t="s">
-        <v>34</v>
       </c>
       <c r="N3" t="s">
         <v>12</v>
@@ -671,261 +614,8 @@
         <v>13</v>
       </c>
       <c r="P3" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>1003</v>
-      </c>
-      <c r="B4" s="3">
-        <v>40206</v>
-      </c>
-      <c r="C4" t="s">
-        <v>21</v>
-      </c>
-      <c r="D4" t="s">
-        <v>20</v>
-      </c>
-      <c r="E4" s="3">
-        <v>36066</v>
-      </c>
-      <c r="F4" s="3">
-        <v>36067</v>
-      </c>
-      <c r="G4" t="s">
-        <v>10</v>
-      </c>
-      <c r="H4" t="s">
         <v>18</v>
       </c>
-      <c r="I4" t="s">
-        <v>49</v>
-      </c>
-      <c r="J4" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="K4" t="s">
-        <v>49</v>
-      </c>
-      <c r="L4" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="M4" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="N4" t="s">
-        <v>12</v>
-      </c>
-      <c r="O4" t="s">
-        <v>13</v>
-      </c>
-      <c r="P4" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>1004</v>
-      </c>
-      <c r="B5" s="3">
-        <v>40206</v>
-      </c>
-      <c r="C5" t="s">
-        <v>25</v>
-      </c>
-      <c r="D5" t="s">
-        <v>26</v>
-      </c>
-      <c r="E5" s="3">
-        <v>36066</v>
-      </c>
-      <c r="F5" s="3">
-        <v>36067</v>
-      </c>
-      <c r="G5" t="s">
-        <v>10</v>
-      </c>
-      <c r="H5" t="s">
-        <v>30</v>
-      </c>
-      <c r="I5" t="s">
-        <v>49</v>
-      </c>
-      <c r="J5" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="K5" t="s">
-        <v>49</v>
-      </c>
-      <c r="L5" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="M5" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="N5" t="s">
-        <v>19</v>
-      </c>
-      <c r="O5" t="s">
-        <v>13</v>
-      </c>
-      <c r="P5" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>1005</v>
-      </c>
-      <c r="B6" s="3">
-        <v>40206</v>
-      </c>
-      <c r="C6" t="s">
-        <v>22</v>
-      </c>
-      <c r="D6" t="s">
-        <v>27</v>
-      </c>
-      <c r="E6" s="3">
-        <v>36066</v>
-      </c>
-      <c r="F6" s="3">
-        <v>36067</v>
-      </c>
-      <c r="G6" t="s">
-        <v>10</v>
-      </c>
-      <c r="H6" t="s">
-        <v>31</v>
-      </c>
-      <c r="I6" t="s">
-        <v>49</v>
-      </c>
-      <c r="J6" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="K6" t="s">
-        <v>49</v>
-      </c>
-      <c r="L6" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="M6" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="N6" t="s">
-        <v>35</v>
-      </c>
-      <c r="O6" t="s">
-        <v>13</v>
-      </c>
-      <c r="P6" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>1006</v>
-      </c>
-      <c r="B7" s="3">
-        <v>40206</v>
-      </c>
-      <c r="C7" t="s">
-        <v>23</v>
-      </c>
-      <c r="D7" t="s">
-        <v>28</v>
-      </c>
-      <c r="E7" s="3">
-        <v>36066</v>
-      </c>
-      <c r="F7" s="3">
-        <v>36067</v>
-      </c>
-      <c r="G7" t="s">
-        <v>10</v>
-      </c>
-      <c r="H7" t="s">
-        <v>32</v>
-      </c>
-      <c r="I7" t="s">
-        <v>49</v>
-      </c>
-      <c r="J7" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="K7" t="s">
-        <v>49</v>
-      </c>
-      <c r="L7" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="M7" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="N7" t="s">
-        <v>36</v>
-      </c>
-      <c r="O7" t="s">
-        <v>13</v>
-      </c>
-      <c r="P7" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>1007</v>
-      </c>
-      <c r="B8" s="3">
-        <v>40206</v>
-      </c>
-      <c r="C8" t="s">
-        <v>24</v>
-      </c>
-      <c r="D8" t="s">
-        <v>29</v>
-      </c>
-      <c r="E8" s="3">
-        <v>36066</v>
-      </c>
-      <c r="F8" s="3">
-        <v>36067</v>
-      </c>
-      <c r="G8" t="s">
-        <v>10</v>
-      </c>
-      <c r="H8" t="s">
-        <v>33</v>
-      </c>
-      <c r="I8" t="s">
-        <v>49</v>
-      </c>
-      <c r="J8" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="K8" t="s">
-        <v>49</v>
-      </c>
-      <c r="L8" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="M8" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="N8" t="s">
-        <v>37</v>
-      </c>
-      <c r="O8" t="s">
-        <v>13</v>
-      </c>
-      <c r="P8" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="B9" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
